--- a/GraphUsingLambda.xlsx
+++ b/GraphUsingLambda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biegertm\OneDrive - Starkey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E08BF084-6CEF-4C47-B67B-D16EDD59A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86A55EC-67D7-4F71-811B-07A27F1EFE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32940" yWindow="0" windowWidth="22500" windowHeight="17400" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView minimized="1" xWindow="2532" yWindow="2532" windowWidth="17280" windowHeight="9036" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +169,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +326,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
@@ -342,6 +336,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{46D158C1-3DFE-4A61-ADE7-797F5D5E23D3}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
